--- a/CourseworkPartOne/res/Done Tests/UpdatedTimes.xlsx
+++ b/CourseworkPartOne/res/Done Tests/UpdatedTimes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40167111\Documents\GitHub\ConcurrentAndParallelSystems\CourseworkPartOne\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40167111\Documents\GitHub\ConcurrentAndParallelSystems\CourseworkPartOne\res\Done Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="45">
   <si>
     <t>Manual for</t>
   </si>
@@ -144,9 +144,6 @@
     <t>D4096:</t>
   </si>
   <si>
-    <t>256 Dims</t>
-  </si>
-  <si>
     <t>1024 Dims</t>
   </si>
   <si>
@@ -157,6 +154,12 @@
   </si>
   <si>
     <t>D512:</t>
+  </si>
+  <si>
+    <t>512 Dims</t>
+  </si>
+  <si>
+    <t>OpenMP</t>
   </si>
 </sst>
 </file>
@@ -757,11 +760,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AP$13</c:f>
+              <c:f>Sheet2!$AB$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 Samples</c:v>
+                  <c:v>512 Dims</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -778,7 +781,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$AQ$11:$AS$12</c:f>
+              <c:f>Sheet2!$AC$21:$AE$22</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="3"/>
                 <c:lvl>
@@ -802,18 +805,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AQ$13:$AS$13</c:f>
+              <c:f>Sheet2!$AC$23:$AE$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.9709899999999987</c:v>
+                  <c:v>3.1146538461538453</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3498200000000007</c:v>
+                  <c:v>0.83458695652173864</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.090583838383838</c:v>
+                  <c:v>0.73383838383838362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -829,11 +832,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AP$14</c:f>
+              <c:f>Sheet2!$AB$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8 Samples</c:v>
+                  <c:v>1024 Dims</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -850,7 +853,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$AQ$11:$AS$12</c:f>
+              <c:f>Sheet2!$AC$21:$AE$22</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="3"/>
                 <c:lvl>
@@ -874,18 +877,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AQ$14:$AS$14</c:f>
+              <c:f>Sheet2!$AC$24:$AE$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>23.921310000000002</c:v>
+                  <c:v>8.9709899999999987</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.3498200000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9212099999999976</c:v>
+                  <c:v>3.0903279999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -901,11 +904,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AP$15</c:f>
+              <c:f>Sheet2!$AB$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12 Samples</c:v>
+                  <c:v>2048 Dims</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -922,7 +925,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$AQ$11:$AS$12</c:f>
+              <c:f>Sheet2!$AC$21:$AE$22</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="3"/>
                 <c:lvl>
@@ -946,18 +949,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AQ$15:$AS$15</c:f>
+              <c:f>Sheet2!$AC$25:$AE$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>35.842180000000013</c:v>
+                  <c:v>49.12641025641026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5390599999999983</c:v>
+                  <c:v>12.759629629629627</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4887599999999974</c:v>
+                  <c:v>11.71873684210526</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -973,11 +976,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AP$16</c:f>
+              <c:f>Sheet2!$AB$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16 Samples</c:v>
+                  <c:v>4096 Dims</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -994,7 +997,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$AQ$11:$AS$12</c:f>
+              <c:f>Sheet2!$AC$21:$AE$22</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="3"/>
                 <c:lvl>
@@ -1018,18 +1021,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AQ$16:$AS$16</c:f>
+              <c:f>Sheet2!$AC$26:$AE$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>44.539459770114931</c:v>
+                  <c:v>198.13016666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6368600000000022</c:v>
+                  <c:v>50.799300000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.426420000000002</c:v>
+                  <c:v>46.627533333333318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1045,12 +1048,9 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AP$17</c:f>
+              <c:f>Sheet2!$AB$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>20 Samples</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1066,7 +1066,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$AQ$11:$AS$12</c:f>
+              <c:f>Sheet2!$AC$21:$AE$22</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="3"/>
                 <c:lvl>
@@ -1090,19 +1090,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AQ$17:$AS$17</c:f>
+              <c:f>Sheet2!$AC$27:$AE$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>47.706150000000008</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.983768292682928</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.03330487804878</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1117,12 +1108,9 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AP$18</c:f>
+              <c:f>Sheet2!$AB$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>256 Samples</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1138,7 +1126,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$AQ$11:$AS$12</c:f>
+              <c:f>Sheet2!$AC$21:$AE$22</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="3"/>
                 <c:lvl>
@@ -1162,19 +1150,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AQ$18:$AS$18</c:f>
+              <c:f>Sheet2!$AC$28:$AE$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>768</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>197.559</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>176.87049999999999</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1189,12 +1168,9 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AP$19</c:f>
+              <c:f>Sheet2!$AB$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>512 Samples</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1212,7 +1188,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$AQ$11:$AS$12</c:f>
+              <c:f>Sheet2!$AC$21:$AE$22</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="3"/>
                 <c:lvl>
@@ -1236,19 +1212,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AQ$19:$AS$19</c:f>
+              <c:f>Sheet2!$AC$29:$AE$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1533.15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>398.23700000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>348.49433333333332</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1454,7 +1421,1228 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Efficiency against different dimensions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18932633420822401"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$P$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C++ 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$O$13:$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512 Dims</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024 Dims</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048 Dims</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096 Dims</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$P$13:$P$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.79093255333792201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73555124070797506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77742324024320886</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78722800405482907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B693-4C3E-88EB-6EA7377CC806}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AF$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$O$13:$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512 Dims</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024 Dims</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048 Dims</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096 Dims</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AF$13:$AF$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B693-4C3E-88EB-6EA7377CC806}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AG$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$O$13:$O$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>512 Dims</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024 Dims</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048 Dims</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096 Dims</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AG$13:$AG$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.93299260844388643</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66951283949585327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96253597640349864</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97506346872233796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B693-4C3E-88EB-6EA7377CC806}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="492881688"/>
+        <c:axId val="492889232"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="492881688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492889232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="492889232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="492881688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Average time to compute</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AB$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512 Dims</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$AC$22:$AE$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Serial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OMP For</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C++11 Thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AC$23:$AE$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.1146538461538453</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83458695652173864</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73383838383838362</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-05D8-464E-9332-8826F1D51D36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AB$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024 Dims</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$AC$22:$AE$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Serial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OMP For</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C++11 Thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AC$24:$AE$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.9709899999999987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3498200000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0903279999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-05D8-464E-9332-8826F1D51D36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AB$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2048 Dims</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$AC$22:$AE$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Serial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OMP For</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C++11 Thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AC$25:$AE$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>49.12641025641026</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.759629629629627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.71873684210526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-05D8-464E-9332-8826F1D51D36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AB$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4096 Dims</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$AC$22:$AE$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Serial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OMP For</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C++11 Thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AC$26:$AE$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>198.13016666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.799300000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.627533333333318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-05D8-464E-9332-8826F1D51D36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="541403008"/>
+        <c:axId val="541402024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="541403008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541402024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="541402024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time taken</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541403008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2010,6 +3198,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2054,6 +4248,71 @@
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>557212</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2338,10 +4597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS103"/>
+  <dimension ref="A1:AN103"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AK5" sqref="AK5"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AP11" sqref="AP11:AS19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2358,7 +4617,7 @@
     <col min="45" max="45" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -2372,7 +4631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2470,7 +4729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9.1310000000000002</v>
       </c>
@@ -2568,7 +4827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8.9</v>
       </c>
@@ -2670,7 +4929,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8.9410000000000007</v>
       </c>
@@ -2771,7 +5030,7 @@
         <v>2.6780513579834131</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9.0380000000000003</v>
       </c>
@@ -2869,7 +5128,7 @@
         <v>7.1410732516971054</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8.9849999999999994</v>
       </c>
@@ -2951,7 +5210,7 @@
         <v>5.4812434814789928</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8.9260000000000002</v>
       </c>
@@ -3049,7 +5308,7 @@
         <v>4.6217813447652993</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8.9390000000000001</v>
       </c>
@@ -3147,7 +5406,7 @@
         <v>2.9846622602655595</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8.9730000000000008</v>
       </c>
@@ -3244,13 +5503,8 @@
         <f>AJ25/AK25</f>
         <v>3.887446281870226</v>
       </c>
-      <c r="AQ11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR11" s="2"/>
-      <c r="AS11" s="2"/>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8.9369999999999994</v>
       </c>
@@ -3331,17 +5585,8 @@
         <f>AJ29/AK29</f>
         <v>3.8498431838327427</v>
       </c>
-      <c r="AQ12" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8.9109999999999996</v>
       </c>
@@ -3430,23 +5675,8 @@
       <c r="AN13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AP13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ13">
-        <f>AJ5</f>
-        <v>8.9709899999999987</v>
-      </c>
-      <c r="AR13">
-        <f>AK5</f>
-        <v>3.3498200000000007</v>
-      </c>
-      <c r="AS13">
-        <f>Q5</f>
-        <v>3.090583838383838</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8.9459999999999997</v>
       </c>
@@ -3535,23 +5765,8 @@
       <c r="AN14" t="s">
         <v>27</v>
       </c>
-      <c r="AP14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ14">
-        <f>AJ9</f>
-        <v>23.921310000000002</v>
-      </c>
-      <c r="AR14">
-        <f>AK9</f>
-        <v>3.3498200000000007</v>
-      </c>
-      <c r="AS14">
-        <f>Q9</f>
-        <v>5.9212099999999976</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.9290000000000003</v>
       </c>
@@ -3597,7 +5812,7 @@
         <v>10</v>
       </c>
       <c r="T15">
-        <f>T6/4</f>
+        <f t="shared" ref="T15:T21" si="0">T6/4</f>
         <v>0.7256711408847597</v>
       </c>
       <c r="U15">
@@ -3645,26 +5860,11 @@
         <v>10</v>
       </c>
       <c r="AN15">
-        <f>AN6/4</f>
+        <f t="shared" ref="AN15:AN21" si="1">AN6/4</f>
         <v>0.66951283949585327</v>
       </c>
-      <c r="AP15" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ15">
-        <f>AJ13</f>
-        <v>35.842180000000013</v>
-      </c>
-      <c r="AR15">
-        <f>AK13</f>
-        <v>6.5390599999999983</v>
-      </c>
-      <c r="AS15">
-        <f>Q13</f>
-        <v>8.4887599999999974</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8.9120000000000008</v>
       </c>
@@ -3702,7 +5902,7 @@
         <v>14</v>
       </c>
       <c r="T16">
-        <f>T7/4</f>
+        <f t="shared" si="0"/>
         <v>0.75365803611086257</v>
       </c>
       <c r="U16">
@@ -3742,26 +5942,11 @@
         <v>14</v>
       </c>
       <c r="AN16">
-        <f>AN7/4</f>
+        <f t="shared" si="1"/>
         <v>1.7852683129242763</v>
       </c>
-      <c r="AP16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ16">
-        <f>AJ17</f>
-        <v>44.539459770114931</v>
-      </c>
-      <c r="AR16">
-        <f>AK17</f>
-        <v>9.6368600000000022</v>
-      </c>
-      <c r="AS16">
-        <f>Q17</f>
-        <v>11.426420000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8.9149999999999991</v>
       </c>
@@ -3807,7 +5992,7 @@
         <v>15</v>
       </c>
       <c r="T17">
-        <f>T8/4</f>
+        <f t="shared" si="0"/>
         <v>0.78631272411989561</v>
       </c>
       <c r="U17">
@@ -3855,26 +6040,11 @@
         <v>15</v>
       </c>
       <c r="AN17">
-        <f>AN8/4</f>
+        <f t="shared" si="1"/>
         <v>1.3703108703697482</v>
       </c>
-      <c r="AP17" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ17">
-        <f>AJ21</f>
-        <v>47.706150000000008</v>
-      </c>
-      <c r="AR17">
-        <f>AK21</f>
-        <v>15.983768292682928</v>
-      </c>
-      <c r="AS17">
-        <f>Q21</f>
-        <v>14.03330487804878</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8.9429999999999996</v>
       </c>
@@ -3920,7 +6090,7 @@
         <v>16</v>
       </c>
       <c r="T18">
-        <f>T9/4</f>
+        <f t="shared" si="0"/>
         <v>0.77427729179108862</v>
       </c>
       <c r="U18">
@@ -3968,26 +6138,11 @@
         <v>16</v>
       </c>
       <c r="AN18">
-        <f>AN9/4</f>
+        <f t="shared" si="1"/>
         <v>1.1554453361913248</v>
       </c>
-      <c r="AP18" t="s">
-        <v>31</v>
-      </c>
-      <c r="AQ18">
-        <f>AJ25</f>
-        <v>768</v>
-      </c>
-      <c r="AR18">
-        <f>AK25</f>
-        <v>197.559</v>
-      </c>
-      <c r="AS18">
-        <f>Q25</f>
-        <v>176.87049999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8.9030000000000005</v>
       </c>
@@ -4033,7 +6188,7 @@
         <v>17</v>
       </c>
       <c r="T19">
-        <f>T10/4</f>
+        <f t="shared" si="0"/>
         <v>0.79345991833656704</v>
       </c>
       <c r="U19">
@@ -4081,26 +6236,11 @@
         <v>17</v>
       </c>
       <c r="AN19">
-        <f>AN10/4</f>
+        <f t="shared" si="1"/>
         <v>0.74616556506638987</v>
       </c>
-      <c r="AP19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ19">
-        <f>AJ29</f>
-        <v>1533.15</v>
-      </c>
-      <c r="AR19">
-        <f>AK29</f>
-        <v>398.23700000000002</v>
-      </c>
-      <c r="AS19">
-        <f>Q29</f>
-        <v>348.49433333333332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8.9350000000000005</v>
       </c>
@@ -4138,7 +6278,7 @@
         <v>31</v>
       </c>
       <c r="T20">
-        <f>T11/4</f>
+        <f t="shared" si="0"/>
         <v>0.81190263497869919</v>
       </c>
       <c r="U20">
@@ -4178,11 +6318,11 @@
         <v>31</v>
       </c>
       <c r="AN20">
-        <f>AN11/4</f>
+        <f t="shared" si="1"/>
         <v>0.9718615704675565</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8.9260000000000002</v>
       </c>
@@ -4228,7 +6368,7 @@
         <v>30</v>
       </c>
       <c r="T21">
-        <f>T12/4</f>
+        <f t="shared" si="0"/>
         <v>0.81080586676206112</v>
       </c>
       <c r="U21">
@@ -4276,11 +6416,11 @@
         <v>30</v>
       </c>
       <c r="AN21">
-        <f>AN12/4</f>
+        <f t="shared" si="1"/>
         <v>0.96246079595818568</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8.9619999999999997</v>
       </c>
@@ -4364,7 +6504,7 @@
         <v>17.02</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8.9350000000000005</v>
       </c>
@@ -4448,7 +6588,7 @@
         <v>15.739000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8.9809999999999999</v>
       </c>
@@ -4516,7 +6656,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8.9239999999999995</v>
       </c>
@@ -4600,7 +6740,7 @@
         <v>197.559</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8.9469999999999992</v>
       </c>
@@ -4684,7 +6824,7 @@
         <v>197.559</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8.9139999999999997</v>
       </c>
@@ -4768,7 +6908,7 @@
         <v>197.559</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8.9689999999999994</v>
       </c>
@@ -4836,7 +6976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8.9619999999999997</v>
       </c>
@@ -4920,7 +7060,7 @@
         <v>398.23700000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8.9629999999999992</v>
       </c>
@@ -5004,7 +7144,7 @@
         <v>398.23700000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8.9920000000000009</v>
       </c>
@@ -5088,7 +7228,7 @@
         <v>398.23700000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8.9359999999999999</v>
       </c>
@@ -9346,9 +11486,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="AQ11:AS11"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9357,20 +11494,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS39"/>
+  <dimension ref="A1:AS103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AH33" sqref="AH33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="38" max="39" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -9405,13 +11546,13 @@
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="K2" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>20</v>
@@ -9419,7 +11560,7 @@
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
@@ -9431,7 +11572,7 @@
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
         <v>36</v>
@@ -9451,13 +11592,13 @@
       </c>
       <c r="M3">
         <f>AVERAGE(F4:F102)</f>
-        <v>0.75721052631578967</v>
+        <v>0.73383838383838362</v>
       </c>
       <c r="P3" t="s">
         <v>22</v>
       </c>
       <c r="R3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S3" t="s">
         <v>33</v>
@@ -9469,7 +11610,7 @@
         <v>35</v>
       </c>
       <c r="W3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X3" t="s">
         <v>36</v>
@@ -9485,14 +11626,14 @@
       </c>
       <c r="AC3">
         <f>AVERAGE(R4:R103)</f>
-        <v>3.1019999999999999</v>
+        <v>3.1146538461538453</v>
       </c>
       <c r="AD3">
-        <f>AVERAGE(Y4:Y102)</f>
-        <v>12.648999999999999</v>
+        <f>AVERAGE(W4:W102)</f>
+        <v>0.83458695652173864</v>
       </c>
       <c r="AG3" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
@@ -9500,19 +11641,19 @@
         <v>2.359</v>
       </c>
       <c r="B4">
-        <v>8.9700000000000006</v>
+        <v>9.2230000000000008</v>
       </c>
       <c r="C4">
-        <v>36.927999999999997</v>
+        <v>36.741999999999997</v>
       </c>
       <c r="D4">
-        <v>46.442999999999998</v>
+        <v>146.94399999999999</v>
       </c>
       <c r="F4">
-        <v>0.82299999999999995</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="G4">
-        <v>3.09</v>
+        <v>3.3029999999999999</v>
       </c>
       <c r="H4">
         <v>11.927</v>
@@ -9529,33 +11670,33 @@
       </c>
       <c r="M4">
         <f>MAX(F4:F102)</f>
-        <v>0.82299999999999995</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="O4" t="str">
         <f>K2</f>
-        <v>256 Dims</v>
+        <v>512 Dims</v>
       </c>
       <c r="P4">
         <f>L3/M3</f>
-        <v>3.066078172424179</v>
+        <v>3.163730213351688</v>
       </c>
       <c r="R4">
-        <v>3.1019999999999999</v>
+        <v>3.15</v>
       </c>
       <c r="S4">
-        <v>8.9700000000000006</v>
+        <v>9.1310000000000002</v>
       </c>
       <c r="T4">
         <v>48.456000000000003</v>
       </c>
       <c r="U4">
-        <v>193.74100000000001</v>
+        <v>198.74100000000001</v>
       </c>
       <c r="W4">
         <v>0.91300000000000003</v>
       </c>
       <c r="X4">
-        <v>3.34</v>
+        <v>3.4590000000000001</v>
       </c>
       <c r="Y4">
         <v>12.648999999999999</v>
@@ -9568,19 +11709,19 @@
       </c>
       <c r="AC4">
         <f>MAX(R6:R105)</f>
-        <v>0</v>
+        <v>3.1520000000000001</v>
       </c>
       <c r="AD4">
-        <f>MAX(Y4:Y102)</f>
-        <v>12.648999999999999</v>
+        <f>MAX(W4:W102)</f>
+        <v>0.91300000000000003</v>
       </c>
       <c r="AF4" t="str">
         <f>AB2</f>
-        <v>256 Dims</v>
+        <v>512 Dims</v>
       </c>
       <c r="AG4">
         <f>AC3/AD3</f>
-        <v>0.24523677761087834</v>
+        <v>3.7319704337755457</v>
       </c>
       <c r="AI4" s="1"/>
       <c r="AN4" s="1"/>
@@ -9589,17 +11730,26 @@
       <c r="A5">
         <v>2.2930000000000001</v>
       </c>
+      <c r="B5">
+        <v>9.2560000000000002</v>
+      </c>
       <c r="C5">
-        <v>36.460999999999999</v>
+        <v>36.651000000000003</v>
       </c>
       <c r="D5">
-        <v>46.341999999999999</v>
+        <v>147.642</v>
       </c>
       <c r="F5">
-        <v>0.8</v>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="G5">
+        <v>3.0870000000000002</v>
       </c>
       <c r="H5">
         <v>11.691000000000001</v>
+      </c>
+      <c r="I5">
+        <v>46.792999999999999</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
@@ -9610,7 +11760,7 @@
       </c>
       <c r="M5">
         <f>MIN(F4:F102)</f>
-        <v>0.73199999999999998</v>
+        <v>0.71</v>
       </c>
       <c r="O5" t="str">
         <f>K6</f>
@@ -9618,18 +11768,42 @@
       </c>
       <c r="P5">
         <f>L7/M7</f>
-        <v>2.9029126213592238</v>
+        <v>2.9422049628319003</v>
+      </c>
+      <c r="R5">
+        <v>3.0920000000000001</v>
+      </c>
+      <c r="S5">
+        <v>8.9</v>
+      </c>
+      <c r="T5">
+        <v>49.686</v>
+      </c>
+      <c r="U5">
+        <v>199.06800000000001</v>
+      </c>
+      <c r="W5">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="X5">
+        <v>3.3410000000000002</v>
+      </c>
+      <c r="Y5">
+        <v>12.808</v>
+      </c>
+      <c r="Z5">
+        <v>51.106000000000002</v>
       </c>
       <c r="AB5" t="s">
         <v>13</v>
       </c>
       <c r="AC5">
         <f>MIN(R5:R104)</f>
-        <v>0</v>
+        <v>3.0739999999999998</v>
       </c>
       <c r="AD5">
-        <f>MIN(Y4:Y102)</f>
-        <v>12.648999999999999</v>
+        <f>MIN(W4:W102)</f>
+        <v>0.81200000000000006</v>
       </c>
       <c r="AF5" t="str">
         <f>AB6</f>
@@ -9637,27 +11811,36 @@
       </c>
       <c r="AG5">
         <f>AC7/AD7</f>
-        <v>0.17902762254510621</v>
+        <v>2.6780513579834131</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.294</v>
       </c>
+      <c r="B6">
+        <v>9.1229999999999993</v>
+      </c>
       <c r="C6">
-        <v>36.658999999999999</v>
+        <v>36.615000000000002</v>
       </c>
       <c r="D6">
-        <v>46.286000000000001</v>
+        <v>147.55699999999999</v>
       </c>
       <c r="F6">
         <v>0.74199999999999999</v>
       </c>
+      <c r="G6">
+        <v>3.1080000000000001</v>
+      </c>
       <c r="H6">
         <v>11.688000000000001</v>
       </c>
+      <c r="I6">
+        <v>46.722000000000001</v>
+      </c>
       <c r="K6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O6" t="str">
         <f>K10</f>
@@ -9665,10 +11848,34 @@
       </c>
       <c r="P6">
         <f>L11/M11</f>
-        <v>3.1189639286079918</v>
+        <v>3.1096929609728354</v>
+      </c>
+      <c r="R6">
+        <v>3.0739999999999998</v>
+      </c>
+      <c r="S6">
+        <v>8.9410000000000007</v>
+      </c>
+      <c r="T6">
+        <v>49.423999999999999</v>
+      </c>
+      <c r="U6">
+        <v>197.434</v>
+      </c>
+      <c r="W6">
+        <v>0.876</v>
+      </c>
+      <c r="X6">
+        <v>3.33</v>
+      </c>
+      <c r="Y6">
+        <v>12.849</v>
+      </c>
+      <c r="Z6">
+        <v>50.944000000000003</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AF6" t="str">
         <f>AB10</f>
@@ -9676,35 +11883,44 @@
       </c>
       <c r="AG6">
         <f>AC11/AD11</f>
-        <v>3.8308166653490399</v>
+        <v>3.8501439056139946</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.3679999999999999</v>
       </c>
+      <c r="B7">
+        <v>9.0380000000000003</v>
+      </c>
       <c r="C7">
-        <v>36.604999999999997</v>
+        <v>36.734999999999999</v>
       </c>
       <c r="D7">
-        <v>46.49</v>
+        <v>147.80099999999999</v>
       </c>
       <c r="F7">
-        <v>0.755</v>
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="G7">
+        <v>3.0779999999999998</v>
       </c>
       <c r="H7">
         <v>11.728</v>
       </c>
+      <c r="I7">
+        <v>46.429000000000002</v>
+      </c>
       <c r="K7" t="s">
         <v>11</v>
       </c>
       <c r="L7">
         <f>AVERAGE(B4:B104)</f>
-        <v>8.9700000000000006</v>
+        <v>9.0923783783783794</v>
       </c>
       <c r="M7">
         <f>AVERAGE(G4:G104)</f>
-        <v>3.09</v>
+        <v>3.0903279999999995</v>
       </c>
       <c r="O7" t="str">
         <f>K14</f>
@@ -9712,18 +11928,42 @@
       </c>
       <c r="P7">
         <f>L15/M15</f>
-        <v>0.9982838390359372</v>
+        <v>3.1489120162193163</v>
+      </c>
+      <c r="R7">
+        <v>3.0960000000000001</v>
+      </c>
+      <c r="S7">
+        <v>9.0380000000000003</v>
+      </c>
+      <c r="T7">
+        <v>49.42</v>
+      </c>
+      <c r="U7">
+        <v>198.31800000000001</v>
+      </c>
+      <c r="W7">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="X7">
+        <v>3.3420000000000001</v>
+      </c>
+      <c r="Y7">
+        <v>12.77</v>
+      </c>
+      <c r="Z7">
+        <v>50.851999999999997</v>
       </c>
       <c r="AB7" t="s">
         <v>11</v>
       </c>
       <c r="AC7">
         <f>AVERAGE(S4:S104)</f>
-        <v>8.9700000000000006</v>
+        <v>8.9709899999999987</v>
       </c>
       <c r="AD7">
-        <f>AVERAGE(Z4:Z104)</f>
-        <v>50.103999999999999</v>
+        <f>AVERAGE(X4:X104)</f>
+        <v>3.3498200000000007</v>
       </c>
       <c r="AF7" t="str">
         <f>AB14</f>
@@ -9731,43 +11971,79 @@
       </c>
       <c r="AG7">
         <f>AC15/AD15</f>
-        <v>3.8667771036244614</v>
+        <v>3.9002538748893518</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.3260000000000001</v>
       </c>
+      <c r="B8">
+        <v>9.1199999999999992</v>
+      </c>
       <c r="C8">
-        <v>36.622999999999998</v>
+        <v>36.598999999999997</v>
+      </c>
+      <c r="D8">
+        <v>146.28800000000001</v>
       </c>
       <c r="F8">
-        <v>0.746</v>
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="G8">
+        <v>3.1429999999999998</v>
       </c>
       <c r="H8">
         <v>11.721</v>
       </c>
+      <c r="I8">
+        <v>46.795999999999999</v>
+      </c>
       <c r="K8" t="s">
         <v>12</v>
       </c>
       <c r="L8">
         <f>MAX(B4:B104)</f>
-        <v>8.9700000000000006</v>
+        <v>9.2560000000000002</v>
       </c>
       <c r="M8">
         <f>MAX(G4:G104)</f>
-        <v>3.09</v>
+        <v>3.766</v>
+      </c>
+      <c r="R8">
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="S8">
+        <v>8.9849999999999994</v>
+      </c>
+      <c r="T8">
+        <v>49.383000000000003</v>
+      </c>
+      <c r="U8">
+        <v>197.47499999999999</v>
+      </c>
+      <c r="W8">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="X8">
+        <v>3.3359999999999999</v>
+      </c>
+      <c r="Y8">
+        <v>12.695</v>
+      </c>
+      <c r="Z8">
+        <v>50.892000000000003</v>
       </c>
       <c r="AB8" t="s">
         <v>12</v>
       </c>
       <c r="AC8">
         <f>MAX(S4:S104)</f>
-        <v>8.9700000000000006</v>
+        <v>9.2590000000000003</v>
       </c>
       <c r="AD8">
-        <f>MAX(Z4:Z104)</f>
-        <v>50.103999999999999</v>
+        <f>MAX(X4:X104)</f>
+        <v>3.4590000000000001</v>
       </c>
       <c r="AI8" s="1"/>
     </row>
@@ -9775,95 +12051,197 @@
       <c r="A9">
         <v>2.3170000000000002</v>
       </c>
+      <c r="B9">
+        <v>9.1010000000000009</v>
+      </c>
       <c r="C9">
-        <v>36.941000000000003</v>
+        <v>36.558</v>
+      </c>
+      <c r="D9">
+        <v>146.39500000000001</v>
       </c>
       <c r="F9">
-        <v>0.75800000000000001</v>
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="G9">
+        <v>3.0979999999999999</v>
       </c>
       <c r="H9">
         <v>11.714</v>
       </c>
+      <c r="I9">
+        <v>46.726999999999997</v>
+      </c>
       <c r="K9" t="s">
         <v>13</v>
       </c>
       <c r="L9">
         <f>MIN(B4:B104)</f>
-        <v>8.9700000000000006</v>
+        <v>9.0340000000000007</v>
       </c>
       <c r="M9">
         <f>MIN(G4:G104)</f>
-        <v>3.09</v>
+        <v>3.0419999999999998</v>
+      </c>
+      <c r="R9">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="S9">
+        <v>8.9260000000000002</v>
+      </c>
+      <c r="T9">
+        <v>49.387</v>
+      </c>
+      <c r="U9">
+        <v>197.745</v>
+      </c>
+      <c r="W9">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="X9">
+        <v>3.35</v>
+      </c>
+      <c r="Y9">
+        <v>12.942</v>
+      </c>
+      <c r="Z9">
+        <v>50.973999999999997</v>
       </c>
       <c r="AB9" t="s">
         <v>13</v>
       </c>
       <c r="AC9">
         <f>MIN(S4:S104)</f>
-        <v>8.9700000000000006</v>
+        <v>8.8949999999999996</v>
       </c>
       <c r="AD9">
-        <f>MIN(Z4:Z104)</f>
-        <v>50.103999999999999</v>
+        <f>MIN(X4:X104)</f>
+        <v>3.3119999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2.3439999999999999</v>
       </c>
+      <c r="B10">
+        <v>9.0920000000000005</v>
+      </c>
       <c r="C10">
-        <v>36.722999999999999</v>
+        <v>36.619</v>
+      </c>
+      <c r="D10">
+        <v>146.62700000000001</v>
       </c>
       <c r="F10">
-        <v>0.77600000000000002</v>
+        <v>0.745</v>
+      </c>
+      <c r="G10">
+        <v>3.0640000000000001</v>
       </c>
       <c r="H10">
         <v>11.692</v>
       </c>
+      <c r="I10">
+        <v>46.338999999999999</v>
+      </c>
       <c r="K10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="R10">
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="S10">
+        <v>8.9390000000000001</v>
+      </c>
+      <c r="T10">
+        <v>49.518000000000001</v>
+      </c>
+      <c r="W10">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="X10">
+        <v>3.343</v>
+      </c>
+      <c r="Y10">
+        <v>12.817</v>
+      </c>
+      <c r="Z10">
+        <v>50.9</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2.319</v>
       </c>
+      <c r="B11">
+        <v>9.0470000000000006</v>
+      </c>
       <c r="C11">
-        <v>36.844999999999999</v>
+        <v>36.597000000000001</v>
+      </c>
+      <c r="D11">
+        <v>145.35400000000001</v>
       </c>
       <c r="F11">
-        <v>0.76300000000000001</v>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="G11">
+        <v>3.0630000000000002</v>
       </c>
       <c r="H11">
         <v>11.689</v>
       </c>
+      <c r="I11">
+        <v>46.698999999999998</v>
+      </c>
       <c r="K11" t="s">
         <v>11</v>
       </c>
       <c r="L11">
         <f>AVERAGE(C4:C104)</f>
-        <v>36.557999999999993</v>
+        <v>36.441673469387759</v>
       </c>
       <c r="M11">
         <f>AVERAGE(H4:H104)</f>
-        <v>11.7212</v>
+        <v>11.71873684210526</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="R11">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="S11">
+        <v>8.9730000000000008</v>
+      </c>
+      <c r="T11">
+        <v>49.694000000000003</v>
+      </c>
+      <c r="W11">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="X11">
+        <v>3.3450000000000002</v>
+      </c>
+      <c r="Y11">
+        <v>12.766999999999999</v>
+      </c>
+      <c r="Z11">
+        <v>50.87</v>
+      </c>
       <c r="AB11" t="s">
         <v>11</v>
       </c>
       <c r="AC11">
         <f>AVERAGE(T4:T104)</f>
-        <v>48.456000000000003</v>
+        <v>49.12641025641026</v>
       </c>
       <c r="AD11">
         <f>AVERAGE(Y4:Y104)</f>
-        <v>12.648999999999999</v>
+        <v>12.759629629629627</v>
       </c>
       <c r="AG11" s="1" t="s">
         <v>21</v>
@@ -9876,21 +12254,30 @@
       <c r="A12">
         <v>2.3109999999999999</v>
       </c>
+      <c r="B12">
+        <v>9.07</v>
+      </c>
       <c r="C12">
-        <v>36.777000000000001</v>
+        <v>36.625</v>
       </c>
       <c r="F12">
-        <v>0.76200000000000001</v>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="G12">
+        <v>3.0830000000000002</v>
       </c>
       <c r="H12">
         <v>11.670999999999999</v>
       </c>
+      <c r="I12">
+        <v>46.683</v>
+      </c>
       <c r="K12" t="s">
         <v>12</v>
       </c>
       <c r="L12">
         <f>MAX(C4:C104)</f>
-        <v>36.965000000000003</v>
+        <v>36.805</v>
       </c>
       <c r="M12">
         <f>MAX(H4:H104)</f>
@@ -9899,19 +12286,40 @@
       <c r="P12" t="s">
         <v>23</v>
       </c>
+      <c r="R12">
+        <v>3.1269999999999998</v>
+      </c>
+      <c r="S12">
+        <v>8.9369999999999994</v>
+      </c>
+      <c r="T12">
+        <v>49.381</v>
+      </c>
+      <c r="W12">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="X12">
+        <v>3.3570000000000002</v>
+      </c>
+      <c r="Y12">
+        <v>12.872</v>
+      </c>
+      <c r="Z12">
+        <v>50.524999999999999</v>
+      </c>
       <c r="AB12" t="s">
         <v>12</v>
       </c>
       <c r="AC12">
         <f>MAX(T4:T104)</f>
-        <v>48.456000000000003</v>
+        <v>49.694000000000003</v>
       </c>
       <c r="AD12">
         <f>MAX(Y4:Y104)</f>
-        <v>12.648999999999999</v>
+        <v>12.942</v>
       </c>
       <c r="AG12" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="AI12" s="1"/>
     </row>
@@ -9919,32 +12327,62 @@
       <c r="A13">
         <v>2.33</v>
       </c>
+      <c r="B13">
+        <v>9.1039999999999992</v>
+      </c>
       <c r="C13">
-        <v>36.965000000000003</v>
+        <v>36.584000000000003</v>
       </c>
       <c r="F13">
-        <v>0.746</v>
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="G13">
+        <v>3.056</v>
       </c>
       <c r="H13">
         <v>11.691000000000001</v>
       </c>
+      <c r="I13">
+        <v>46.841999999999999</v>
+      </c>
       <c r="K13" t="s">
         <v>13</v>
       </c>
       <c r="L13">
         <f>MIN(C4:C104)</f>
-        <v>36.116</v>
+        <v>36.215000000000003</v>
       </c>
       <c r="M13">
         <f>MIN(H4:H104)</f>
-        <v>11.670999999999999</v>
+        <v>11.584</v>
       </c>
       <c r="O13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="P13">
         <f>P4/4</f>
-        <v>0.76651954310604475</v>
+        <v>0.79093255333792201</v>
+      </c>
+      <c r="R13">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="S13">
+        <v>8.9109999999999996</v>
+      </c>
+      <c r="T13">
+        <v>49.183</v>
+      </c>
+      <c r="W13">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="X13">
+        <v>3.3439999999999999</v>
+      </c>
+      <c r="Y13">
+        <v>12.798</v>
+      </c>
+      <c r="Z13">
+        <v>50.826000000000001</v>
       </c>
       <c r="AB13" t="s">
         <v>13</v>
@@ -9955,15 +12393,15 @@
       </c>
       <c r="AD13">
         <f>MIN(Y4:Y104)</f>
-        <v>12.648999999999999</v>
+        <v>12.61</v>
       </c>
       <c r="AF13" t="str">
         <f>AF4</f>
-        <v>256 Dims</v>
+        <v>512 Dims</v>
       </c>
       <c r="AG13">
         <f>AG4/4</f>
-        <v>6.1309194402719584E-2</v>
+        <v>0.93299260844388643</v>
       </c>
       <c r="AN13" s="1"/>
     </row>
@@ -9971,24 +12409,54 @@
       <c r="A14">
         <v>2.31</v>
       </c>
+      <c r="B14">
+        <v>9.0879999999999992</v>
+      </c>
       <c r="C14">
-        <v>36.262999999999998</v>
+        <v>36.554000000000002</v>
       </c>
       <c r="F14">
-        <v>0.746</v>
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="G14">
+        <v>3.0830000000000002</v>
+      </c>
+      <c r="H14">
+        <v>11.863</v>
+      </c>
+      <c r="I14">
+        <v>46.689</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P14">
         <f>P5/4</f>
-        <v>0.72572815533980595</v>
+        <v>0.73555124070797506</v>
+      </c>
+      <c r="R14">
+        <v>3.12</v>
+      </c>
+      <c r="S14">
+        <v>8.9459999999999997</v>
+      </c>
+      <c r="T14">
+        <v>49.072000000000003</v>
+      </c>
+      <c r="W14">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="X14">
+        <v>3.3359999999999999</v>
+      </c>
+      <c r="Y14">
+        <v>12.634</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF14" t="str">
         <f>AF5</f>
@@ -9996,47 +12464,77 @@
       </c>
       <c r="AG14">
         <f>AG5/4</f>
-        <v>4.4756905636276552E-2</v>
+        <v>0.66951283949585327</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2.3130000000000002</v>
       </c>
+      <c r="B15">
+        <v>9.077</v>
+      </c>
       <c r="C15">
-        <v>36.396999999999998</v>
+        <v>36.563000000000002</v>
       </c>
       <c r="F15">
-        <v>0.75600000000000001</v>
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="G15">
+        <v>3.05</v>
+      </c>
+      <c r="H15">
+        <v>11.773</v>
+      </c>
+      <c r="I15">
+        <v>46.548999999999999</v>
       </c>
       <c r="K15" t="s">
         <v>11</v>
       </c>
       <c r="L15">
         <f>AVERAGE(D4:D104)</f>
-        <v>46.390250000000002</v>
+        <v>146.82599999999999</v>
       </c>
       <c r="M15">
         <f>AVERAGE(I4:I92)</f>
-        <v>46.47</v>
+        <v>46.627533333333318</v>
       </c>
       <c r="O15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P15">
         <f>P6/4</f>
-        <v>0.77974098215199794</v>
+        <v>0.77742324024320886</v>
+      </c>
+      <c r="R15">
+        <v>3.1150000000000002</v>
+      </c>
+      <c r="S15">
+        <v>8.9290000000000003</v>
+      </c>
+      <c r="T15">
+        <v>49.088999999999999</v>
+      </c>
+      <c r="W15">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="X15">
+        <v>3.3410000000000002</v>
+      </c>
+      <c r="Y15">
+        <v>12.811999999999999</v>
       </c>
       <c r="AB15" t="s">
         <v>11</v>
       </c>
       <c r="AC15">
         <f>AVERAGE(U4:U104)</f>
-        <v>193.74100000000001</v>
+        <v>198.13016666666667</v>
       </c>
       <c r="AD15">
         <f>AVERAGE(Z4:Z92)</f>
-        <v>50.103999999999999</v>
+        <v>50.799300000000002</v>
       </c>
       <c r="AF15" t="str">
         <f>AF6</f>
@@ -10044,47 +12542,77 @@
       </c>
       <c r="AG15">
         <f>AG6/4</f>
-        <v>0.95770416633725997</v>
+        <v>0.96253597640349864</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2.3370000000000002</v>
       </c>
+      <c r="B16">
+        <v>9.1020000000000003</v>
+      </c>
       <c r="C16">
-        <v>36.116</v>
+        <v>36.805</v>
       </c>
       <c r="F16">
-        <v>0.74</v>
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="G16">
+        <v>3.0449999999999999</v>
+      </c>
+      <c r="H16">
+        <v>11.676</v>
+      </c>
+      <c r="I16">
+        <v>46.607999999999997</v>
       </c>
       <c r="K16" t="s">
         <v>12</v>
       </c>
       <c r="L16">
         <f>MAX(D4:D104)</f>
-        <v>46.49</v>
+        <v>147.80099999999999</v>
       </c>
       <c r="M16">
         <f>MAX(I4:I92)</f>
-        <v>46.47</v>
+        <v>46.841999999999999</v>
       </c>
       <c r="O16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P16">
         <f>P7/4</f>
-        <v>0.2495709597589843</v>
+        <v>0.78722800405482907</v>
+      </c>
+      <c r="R16">
+        <v>3.1419999999999999</v>
+      </c>
+      <c r="S16">
+        <v>8.9120000000000008</v>
+      </c>
+      <c r="T16">
+        <v>49.112000000000002</v>
+      </c>
+      <c r="W16">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="X16">
+        <v>3.3450000000000002</v>
+      </c>
+      <c r="Y16">
+        <v>12.831</v>
       </c>
       <c r="AB16" t="s">
         <v>12</v>
       </c>
       <c r="AC16">
         <f>MAX(U4:U104)</f>
-        <v>193.74100000000001</v>
+        <v>199.06800000000001</v>
       </c>
       <c r="AD16">
         <f>MAX(Z4:Z92)</f>
-        <v>50.103999999999999</v>
+        <v>51.106000000000002</v>
       </c>
       <c r="AF16" t="str">
         <f>AF7</f>
@@ -10092,7 +12620,7 @@
       </c>
       <c r="AG16">
         <f>AG7/4</f>
-        <v>0.96669427590611534</v>
+        <v>0.97506346872233796</v>
       </c>
       <c r="AI16" s="1"/>
     </row>
@@ -10100,29 +12628,59 @@
       <c r="A17">
         <v>2.3319999999999999</v>
       </c>
+      <c r="B17">
+        <v>9.0739999999999998</v>
+      </c>
       <c r="C17">
-        <v>36.168999999999997</v>
+        <v>36.789000000000001</v>
       </c>
       <c r="F17">
-        <v>0.752</v>
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="G17">
+        <v>3.0539999999999998</v>
+      </c>
+      <c r="H17">
+        <v>11.718</v>
+      </c>
+      <c r="I17">
+        <v>46.488</v>
       </c>
       <c r="K17" t="s">
         <v>13</v>
       </c>
       <c r="L17">
         <f>MIN(D4:D104)</f>
-        <v>46.286000000000001</v>
+        <v>145.35400000000001</v>
       </c>
       <c r="M17">
         <f>MIN(I4:I92)</f>
-        <v>46.47</v>
+        <v>46.338999999999999</v>
+      </c>
+      <c r="R17">
+        <v>3.1280000000000001</v>
+      </c>
+      <c r="S17">
+        <v>8.9149999999999991</v>
+      </c>
+      <c r="T17">
+        <v>49.008000000000003</v>
+      </c>
+      <c r="W17">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="X17">
+        <v>3.3340000000000001</v>
+      </c>
+      <c r="Y17">
+        <v>12.651</v>
       </c>
       <c r="AB17" t="s">
         <v>13</v>
       </c>
       <c r="AC17">
         <f>MIN(U4:U104)</f>
-        <v>193.74100000000001</v>
+        <v>197.434</v>
       </c>
       <c r="AD17">
         <f>MIN(Z4:Z92)</f>
@@ -10133,143 +12691,2184 @@
       <c r="A18">
         <v>2.3279999999999998</v>
       </c>
+      <c r="B18">
+        <v>9.0739999999999998</v>
+      </c>
       <c r="C18">
-        <v>36.238999999999997</v>
+        <v>36.344000000000001</v>
       </c>
       <c r="F18">
-        <v>0.76800000000000002</v>
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="G18">
+        <v>3.0739999999999998</v>
+      </c>
+      <c r="H18">
+        <v>11.677</v>
+      </c>
+      <c r="I18">
+        <v>46.579000000000001</v>
+      </c>
+      <c r="R18">
+        <v>3.1190000000000002</v>
+      </c>
+      <c r="S18">
+        <v>8.9429999999999996</v>
+      </c>
+      <c r="T18">
+        <v>49.107999999999997</v>
+      </c>
+      <c r="W18">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="X18">
+        <v>3.359</v>
+      </c>
+      <c r="Y18">
+        <v>12.81</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2.37</v>
       </c>
+      <c r="B19">
+        <v>9.0939999999999994</v>
+      </c>
       <c r="C19">
-        <v>36.216999999999999</v>
+        <v>36.262999999999998</v>
       </c>
       <c r="F19">
-        <v>0.74199999999999999</v>
+        <v>0.72</v>
+      </c>
+      <c r="G19">
+        <v>3.0579999999999998</v>
+      </c>
+      <c r="H19">
+        <v>11.657</v>
+      </c>
+      <c r="R19">
+        <v>3.0979999999999999</v>
+      </c>
+      <c r="S19">
+        <v>8.9030000000000005</v>
+      </c>
+      <c r="T19">
+        <v>49.040999999999997</v>
+      </c>
+      <c r="W19">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="X19">
+        <v>3.3420000000000001</v>
+      </c>
+      <c r="Y19">
+        <v>12.763</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2.3159999999999998</v>
       </c>
+      <c r="B20">
+        <v>9.07</v>
+      </c>
+      <c r="C20">
+        <v>36.267000000000003</v>
+      </c>
       <c r="F20">
-        <v>0.73199999999999998</v>
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="G20">
+        <v>3.0579999999999998</v>
+      </c>
+      <c r="H20">
+        <v>11.707000000000001</v>
       </c>
       <c r="O20" s="1"/>
+      <c r="R20">
+        <v>3.109</v>
+      </c>
+      <c r="S20">
+        <v>8.9350000000000005</v>
+      </c>
+      <c r="T20">
+        <v>49.091999999999999</v>
+      </c>
+      <c r="W20">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="X20">
+        <v>3.39</v>
+      </c>
+      <c r="Y20">
+        <v>12.695</v>
+      </c>
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2.3570000000000002</v>
       </c>
+      <c r="B21">
+        <v>9.0559999999999992</v>
+      </c>
+      <c r="C21">
+        <v>36.308</v>
+      </c>
       <c r="F21">
-        <v>0.73699999999999999</v>
-      </c>
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="G21">
+        <v>3.0609999999999999</v>
+      </c>
+      <c r="H21">
+        <v>11.721</v>
+      </c>
+      <c r="R21">
+        <v>3.1120000000000001</v>
+      </c>
+      <c r="S21">
+        <v>8.9260000000000002</v>
+      </c>
+      <c r="T21">
+        <v>49.1</v>
+      </c>
+      <c r="W21">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="X21">
+        <v>3.3340000000000001</v>
+      </c>
+      <c r="Y21">
+        <v>12.682</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2.3340000000000001</v>
       </c>
+      <c r="B22">
+        <v>9.1210000000000004</v>
+      </c>
+      <c r="C22">
+        <v>36.305999999999997</v>
+      </c>
       <c r="F22">
-        <v>0.74299999999999999</v>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="G22">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="H22">
+        <v>11.689</v>
+      </c>
+      <c r="R22">
+        <v>3.1520000000000001</v>
+      </c>
+      <c r="S22">
+        <v>8.9619999999999997</v>
+      </c>
+      <c r="T22">
+        <v>49.000999999999998</v>
+      </c>
+      <c r="W22">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="X22">
+        <v>3.3570000000000002</v>
+      </c>
+      <c r="Y22">
+        <v>12.651999999999999</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2.3370000000000002</v>
       </c>
+      <c r="B23">
+        <v>9.0380000000000003</v>
+      </c>
+      <c r="C23">
+        <v>36.29</v>
+      </c>
+      <c r="F23">
+        <v>0.748</v>
+      </c>
+      <c r="G23">
+        <v>3.0619999999999998</v>
+      </c>
+      <c r="H23">
+        <v>11.752000000000001</v>
+      </c>
+      <c r="R23">
+        <v>3.1480000000000001</v>
+      </c>
+      <c r="S23">
+        <v>8.9350000000000005</v>
+      </c>
+      <c r="T23">
+        <v>49.070999999999998</v>
+      </c>
+      <c r="W23">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="X23">
+        <v>3.33</v>
+      </c>
+      <c r="Y23">
+        <v>12.708</v>
+      </c>
+      <c r="AB23" t="str">
+        <f>AB2</f>
+        <v>512 Dims</v>
+      </c>
+      <c r="AC23">
+        <f>AC3</f>
+        <v>3.1146538461538453</v>
+      </c>
+      <c r="AD23">
+        <f>AD3</f>
+        <v>0.83458695652173864</v>
+      </c>
+      <c r="AE23">
+        <f>M3</f>
+        <v>0.73383838383838362</v>
+      </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2.3279999999999998</v>
       </c>
+      <c r="B24">
+        <v>9.077</v>
+      </c>
+      <c r="C24">
+        <v>36.523000000000003</v>
+      </c>
+      <c r="F24">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="G24">
+        <v>3.0640000000000001</v>
+      </c>
+      <c r="H24">
+        <v>11.789</v>
+      </c>
       <c r="O24" s="1"/>
+      <c r="R24">
+        <v>3.1120000000000001</v>
+      </c>
+      <c r="S24">
+        <v>8.9809999999999999</v>
+      </c>
+      <c r="T24">
+        <v>49.104999999999997</v>
+      </c>
+      <c r="W24">
+        <v>0.83</v>
+      </c>
+      <c r="X24">
+        <v>3.335</v>
+      </c>
+      <c r="Y24">
+        <v>12.670999999999999</v>
+      </c>
+      <c r="AB24" t="str">
+        <f>AB6</f>
+        <v>1024 Dims</v>
+      </c>
+      <c r="AC24">
+        <f>AC7</f>
+        <v>8.9709899999999987</v>
+      </c>
+      <c r="AD24">
+        <f>AD7</f>
+        <v>3.3498200000000007</v>
+      </c>
+      <c r="AE24">
+        <f>M7</f>
+        <v>3.0903279999999995</v>
+      </c>
       <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2.3239999999999998</v>
       </c>
+      <c r="B25">
+        <v>9.0830000000000002</v>
+      </c>
+      <c r="C25">
+        <v>36.277000000000001</v>
+      </c>
+      <c r="F25">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="G25">
+        <v>3.0640000000000001</v>
+      </c>
+      <c r="H25">
+        <v>11.584</v>
+      </c>
+      <c r="R25">
+        <v>3.1190000000000002</v>
+      </c>
+      <c r="S25">
+        <v>8.9239999999999995</v>
+      </c>
+      <c r="T25">
+        <v>48.953000000000003</v>
+      </c>
+      <c r="W25">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="X25">
+        <v>3.351</v>
+      </c>
+      <c r="Y25">
+        <v>12.888</v>
+      </c>
+      <c r="AB25" t="str">
+        <f>AB10</f>
+        <v>2048 Dims</v>
+      </c>
+      <c r="AC25">
+        <f>AC11</f>
+        <v>49.12641025641026</v>
+      </c>
+      <c r="AD25">
+        <f>AD11</f>
+        <v>12.759629629629627</v>
+      </c>
+      <c r="AE25">
+        <f>M11</f>
+        <v>11.71873684210526</v>
+      </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2.3130000000000002</v>
       </c>
+      <c r="B26">
+        <v>9.1010000000000009</v>
+      </c>
+      <c r="C26">
+        <v>36.436</v>
+      </c>
+      <c r="F26">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="G26">
+        <v>3.07</v>
+      </c>
+      <c r="H26">
+        <v>11.69</v>
+      </c>
+      <c r="R26">
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="S26">
+        <v>8.9469999999999992</v>
+      </c>
+      <c r="T26">
+        <v>49.055</v>
+      </c>
+      <c r="W26">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="X26">
+        <v>3.3439999999999999</v>
+      </c>
+      <c r="Y26">
+        <v>12.712</v>
+      </c>
+      <c r="AB26" t="str">
+        <f>AB14</f>
+        <v>4096 Dims</v>
+      </c>
+      <c r="AC26">
+        <f>AC15</f>
+        <v>198.13016666666667</v>
+      </c>
+      <c r="AD26">
+        <f>AD15</f>
+        <v>50.799300000000002</v>
+      </c>
+      <c r="AE26">
+        <f>M15</f>
+        <v>46.627533333333318</v>
+      </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2.3650000000000002</v>
       </c>
+      <c r="B27">
+        <v>9.06</v>
+      </c>
+      <c r="C27">
+        <v>36.298999999999999</v>
+      </c>
+      <c r="F27">
+        <v>0.748</v>
+      </c>
+      <c r="G27">
+        <v>3.0880000000000001</v>
+      </c>
+      <c r="H27">
+        <v>11.734999999999999</v>
+      </c>
+      <c r="R27">
+        <v>3.1320000000000001</v>
+      </c>
+      <c r="S27">
+        <v>8.9139999999999997</v>
+      </c>
+      <c r="T27">
+        <v>49.087000000000003</v>
+      </c>
+      <c r="W27">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="X27">
+        <v>3.327</v>
+      </c>
+      <c r="Y27">
+        <v>12.907</v>
+      </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2.3119999999999998</v>
       </c>
+      <c r="B28">
+        <v>9.1120000000000001</v>
+      </c>
+      <c r="C28">
+        <v>36.365000000000002</v>
+      </c>
+      <c r="F28">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="G28">
+        <v>3.0830000000000002</v>
+      </c>
+      <c r="H28">
+        <v>11.722</v>
+      </c>
       <c r="O28" s="1"/>
+      <c r="R28">
+        <v>3.1179999999999999</v>
+      </c>
+      <c r="S28">
+        <v>8.9689999999999994</v>
+      </c>
+      <c r="T28">
+        <v>49.091000000000001</v>
+      </c>
+      <c r="W28">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="X28">
+        <v>3.3170000000000002</v>
+      </c>
+      <c r="Y28">
+        <v>12.759</v>
+      </c>
       <c r="AI28" s="1"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2.3010000000000002</v>
       </c>
+      <c r="B29">
+        <v>9.1440000000000001</v>
+      </c>
+      <c r="C29">
+        <v>36.29</v>
+      </c>
+      <c r="F29">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="G29">
+        <v>3.0649999999999999</v>
+      </c>
+      <c r="H29">
+        <v>11.757999999999999</v>
+      </c>
+      <c r="R29">
+        <v>3.1320000000000001</v>
+      </c>
+      <c r="S29">
+        <v>8.9619999999999997</v>
+      </c>
+      <c r="T29">
+        <v>49.091999999999999</v>
+      </c>
+      <c r="W29">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="X29">
+        <v>3.3319999999999999</v>
+      </c>
+      <c r="Y29">
+        <v>12.61</v>
+      </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2.3050000000000002</v>
       </c>
+      <c r="B30">
+        <v>9.0749999999999993</v>
+      </c>
+      <c r="C30">
+        <v>36.268000000000001</v>
+      </c>
+      <c r="F30">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="G30">
+        <v>3.0590000000000002</v>
+      </c>
+      <c r="H30">
+        <v>11.714</v>
+      </c>
+      <c r="R30">
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="S30">
+        <v>8.9629999999999992</v>
+      </c>
+      <c r="T30">
+        <v>48.957000000000001</v>
+      </c>
+      <c r="W30">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="X30">
+        <v>3.343</v>
+      </c>
+      <c r="Y30">
+        <v>12.757999999999999</v>
+      </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2.3340000000000001</v>
       </c>
+      <c r="B31">
+        <v>9.0640000000000001</v>
+      </c>
+      <c r="C31">
+        <v>36.353000000000002</v>
+      </c>
+      <c r="F31">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="G31">
+        <v>3.0659999999999998</v>
+      </c>
+      <c r="H31">
+        <v>11.752000000000001</v>
+      </c>
+      <c r="R31">
+        <v>3.1120000000000001</v>
+      </c>
+      <c r="S31">
+        <v>8.9920000000000009</v>
+      </c>
+      <c r="T31">
+        <v>49.023000000000003</v>
+      </c>
+      <c r="W31">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="X31">
+        <v>3.3570000000000002</v>
+      </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2.286</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>9.1560000000000006</v>
+      </c>
+      <c r="C32">
+        <v>36.308999999999997</v>
+      </c>
+      <c r="F32">
+        <v>0.73</v>
+      </c>
+      <c r="G32">
+        <v>3.0470000000000002</v>
+      </c>
+      <c r="H32">
+        <v>11.739000000000001</v>
+      </c>
+      <c r="R32">
+        <v>3.129</v>
+      </c>
+      <c r="S32">
+        <v>8.9359999999999999</v>
+      </c>
+      <c r="T32">
+        <v>49.015000000000001</v>
+      </c>
+      <c r="W32">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="X32">
+        <v>3.323</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2.286</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>9.1210000000000004</v>
+      </c>
+      <c r="C33">
+        <v>36.511000000000003</v>
+      </c>
+      <c r="F33">
+        <v>0.75</v>
+      </c>
+      <c r="G33">
+        <v>3.0640000000000001</v>
+      </c>
+      <c r="H33">
+        <v>11.733000000000001</v>
+      </c>
+      <c r="R33">
+        <v>3.093</v>
+      </c>
+      <c r="S33">
+        <v>8.8949999999999996</v>
+      </c>
+      <c r="T33">
+        <v>49.003999999999998</v>
+      </c>
+      <c r="W33">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="X33">
+        <v>3.3570000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2.3149999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>9.07</v>
+      </c>
+      <c r="C34">
+        <v>36.305999999999997</v>
+      </c>
+      <c r="F34">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="G34">
+        <v>3.0539999999999998</v>
+      </c>
+      <c r="H34">
+        <v>11.725</v>
+      </c>
+      <c r="R34">
+        <v>3.1059999999999999</v>
+      </c>
+      <c r="S34">
+        <v>8.923</v>
+      </c>
+      <c r="T34">
+        <v>49.021999999999998</v>
+      </c>
+      <c r="W34">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="X34">
+        <v>3.3279999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2.3029999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>9.0510000000000002</v>
+      </c>
+      <c r="C35">
+        <v>36.281999999999996</v>
+      </c>
+      <c r="F35">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="G35">
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="H35">
+        <v>11.69</v>
+      </c>
+      <c r="R35">
+        <v>3.121</v>
+      </c>
+      <c r="S35">
+        <v>8.9610000000000003</v>
+      </c>
+      <c r="T35">
+        <v>49.097000000000001</v>
+      </c>
+      <c r="W35">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="X35">
+        <v>3.3540000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2.2930000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>9.1289999999999996</v>
+      </c>
+      <c r="C36">
+        <v>36.343000000000004</v>
+      </c>
+      <c r="F36">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="G36">
+        <v>3.0710000000000002</v>
+      </c>
+      <c r="H36">
+        <v>11.694000000000001</v>
+      </c>
+      <c r="R36">
+        <v>3.117</v>
+      </c>
+      <c r="S36">
+        <v>8.9090000000000007</v>
+      </c>
+      <c r="T36">
+        <v>48.991</v>
+      </c>
+      <c r="W36">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="X36">
+        <v>3.4140000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2.3010000000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>9.0890000000000004</v>
+      </c>
+      <c r="C37">
+        <v>36.399000000000001</v>
+      </c>
+      <c r="F37">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="G37">
+        <v>3.0430000000000001</v>
+      </c>
+      <c r="H37">
+        <v>11.673999999999999</v>
+      </c>
+      <c r="R37">
+        <v>3.1269999999999998</v>
+      </c>
+      <c r="S37">
+        <v>8.9469999999999992</v>
+      </c>
+      <c r="T37">
+        <v>49.008000000000003</v>
+      </c>
+      <c r="W37">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="X37">
+        <v>3.3719999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2.3090000000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>9.0879999999999992</v>
+      </c>
+      <c r="C38">
+        <v>36.317999999999998</v>
+      </c>
+      <c r="F38">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="G38">
+        <v>3.0470000000000002</v>
+      </c>
+      <c r="H38">
+        <v>11.72</v>
+      </c>
+      <c r="R38">
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="S38">
+        <v>8.8949999999999996</v>
+      </c>
+      <c r="T38">
+        <v>49.055</v>
+      </c>
+      <c r="W38">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="X38">
+        <v>3.3519999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2.31</v>
       </c>
+      <c r="B39">
+        <v>9.0719999999999992</v>
+      </c>
+      <c r="C39">
+        <v>36.360999999999997</v>
+      </c>
+      <c r="F39">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="G39">
+        <v>3.07</v>
+      </c>
+      <c r="H39">
+        <v>11.765000000000001</v>
+      </c>
+      <c r="R39">
+        <v>3.109</v>
+      </c>
+      <c r="S39">
+        <v>8.9169999999999998</v>
+      </c>
+      <c r="T39">
+        <v>49.018999999999998</v>
+      </c>
+      <c r="W39">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="X39">
+        <v>3.355</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>9.0619999999999994</v>
+      </c>
+      <c r="C40">
+        <v>36.460999999999999</v>
+      </c>
+      <c r="F40">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="G40">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="H40">
+        <v>11.7</v>
+      </c>
+      <c r="R40">
+        <v>3.1139999999999999</v>
+      </c>
+      <c r="S40">
+        <v>8.9670000000000005</v>
+      </c>
+      <c r="T40">
+        <v>49.054000000000002</v>
+      </c>
+      <c r="W40">
+        <v>0.83</v>
+      </c>
+      <c r="X40">
+        <v>3.3460000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>9.0489999999999995</v>
+      </c>
+      <c r="C41">
+        <v>36.386000000000003</v>
+      </c>
+      <c r="F41">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="G41">
+        <v>3.077</v>
+      </c>
+      <c r="H41">
+        <v>11.683</v>
+      </c>
+      <c r="R41">
+        <v>3.1240000000000001</v>
+      </c>
+      <c r="S41">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="T41">
+        <v>49.034999999999997</v>
+      </c>
+      <c r="W41">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="X41">
+        <v>3.3330000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>9.077</v>
+      </c>
+      <c r="C42">
+        <v>36.247999999999998</v>
+      </c>
+      <c r="F42">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="G42">
+        <v>3.07</v>
+      </c>
+      <c r="R42">
+        <v>3.1269999999999998</v>
+      </c>
+      <c r="S42">
+        <v>8.9450000000000003</v>
+      </c>
+      <c r="T42">
+        <v>49.040999999999997</v>
+      </c>
+      <c r="W42">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="X42">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>9.157</v>
+      </c>
+      <c r="C43">
+        <v>36.319000000000003</v>
+      </c>
+      <c r="F43">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="G43">
+        <v>3.0609999999999999</v>
+      </c>
+      <c r="R43">
+        <v>3.1240000000000001</v>
+      </c>
+      <c r="S43">
+        <v>8.9269999999999996</v>
+      </c>
+      <c r="W43">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="X43">
+        <v>3.3530000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>9.0619999999999994</v>
+      </c>
+      <c r="C44">
+        <v>36.215000000000003</v>
+      </c>
+      <c r="F44">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="G44">
+        <v>3.0649999999999999</v>
+      </c>
+      <c r="R44">
+        <v>3.1190000000000002</v>
+      </c>
+      <c r="S44">
+        <v>8.9489999999999998</v>
+      </c>
+      <c r="W44">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="X44">
+        <v>3.3250000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>9.11</v>
+      </c>
+      <c r="C45">
+        <v>36.375999999999998</v>
+      </c>
+      <c r="F45">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="G45">
+        <v>3.0529999999999999</v>
+      </c>
+      <c r="R45">
+        <v>3.1030000000000002</v>
+      </c>
+      <c r="S45">
+        <v>8.968</v>
+      </c>
+      <c r="W45">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="X45">
+        <v>3.3450000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>9.0749999999999993</v>
+      </c>
+      <c r="C46">
+        <v>36.406999999999996</v>
+      </c>
+      <c r="F46">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="G46">
+        <v>3.052</v>
+      </c>
+      <c r="R46">
+        <v>3.117</v>
+      </c>
+      <c r="S46">
+        <v>8.92</v>
+      </c>
+      <c r="W46">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="X46">
+        <v>3.3359999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>9.0809999999999995</v>
+      </c>
+      <c r="C47">
+        <v>36.384</v>
+      </c>
+      <c r="F47">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="G47">
+        <v>3.0649999999999999</v>
+      </c>
+      <c r="R47">
+        <v>3.1339999999999999</v>
+      </c>
+      <c r="S47">
+        <v>8.9209999999999994</v>
+      </c>
+      <c r="W47">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="X47">
+        <v>3.3450000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>9.0709999999999997</v>
+      </c>
+      <c r="C48">
+        <v>36.460999999999999</v>
+      </c>
+      <c r="F48">
+        <v>0.747</v>
+      </c>
+      <c r="G48">
+        <v>3.0649999999999999</v>
+      </c>
+      <c r="R48">
+        <v>3.1070000000000002</v>
+      </c>
+      <c r="S48">
+        <v>8.923</v>
+      </c>
+      <c r="W48">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="X48">
+        <v>3.3279999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>9.1120000000000001</v>
+      </c>
+      <c r="C49">
+        <v>36.375999999999998</v>
+      </c>
+      <c r="F49">
+        <v>0.74</v>
+      </c>
+      <c r="G49">
+        <v>3.2730000000000001</v>
+      </c>
+      <c r="R49">
+        <v>3.0910000000000002</v>
+      </c>
+      <c r="S49">
+        <v>8.9060000000000006</v>
+      </c>
+      <c r="W49">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="X49">
+        <v>3.3460000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>9.0909999999999993</v>
+      </c>
+      <c r="C50">
+        <v>36.536999999999999</v>
+      </c>
+      <c r="F50">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="G50">
+        <v>3.0657999999999999</v>
+      </c>
+      <c r="R50">
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="S50">
+        <v>8.94</v>
+      </c>
+      <c r="W50">
+        <v>0.83</v>
+      </c>
+      <c r="X50">
+        <v>3.3730000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>9.0950000000000006</v>
+      </c>
+      <c r="C51">
+        <v>36.533999999999999</v>
+      </c>
+      <c r="F51">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="G51">
+        <v>3.0609999999999999</v>
+      </c>
+      <c r="R51">
+        <v>3.1219999999999999</v>
+      </c>
+      <c r="S51">
+        <v>8.9390000000000001</v>
+      </c>
+      <c r="W51">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="X51">
+        <v>3.3610000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>9.0820000000000007</v>
+      </c>
+      <c r="C52">
+        <v>36.484000000000002</v>
+      </c>
+      <c r="F52">
+        <v>0.749</v>
+      </c>
+      <c r="G52">
+        <v>3.0619999999999998</v>
+      </c>
+      <c r="R52">
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="S52">
+        <v>8.9269999999999996</v>
+      </c>
+      <c r="W52">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="X52">
+        <v>3.3540000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>9.1</v>
+      </c>
+      <c r="F53">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="G53">
+        <v>3.0720000000000001</v>
+      </c>
+      <c r="R53">
+        <v>3.0880000000000001</v>
+      </c>
+      <c r="S53">
+        <v>8.9049999999999994</v>
+      </c>
+      <c r="W53">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="X53">
+        <v>3.3330000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>9.0609999999999999</v>
+      </c>
+      <c r="F54">
+        <v>0.747</v>
+      </c>
+      <c r="G54">
+        <v>3.0579999999999998</v>
+      </c>
+      <c r="R54">
+        <v>3.1160000000000001</v>
+      </c>
+      <c r="S54">
+        <v>8.8989999999999991</v>
+      </c>
+      <c r="W54">
+        <v>0.83</v>
+      </c>
+      <c r="X54">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>9.1039999999999992</v>
+      </c>
+      <c r="F55">
+        <v>0.752</v>
+      </c>
+      <c r="G55">
+        <v>3.0670000000000002</v>
+      </c>
+      <c r="R55">
+        <v>3.1110000000000002</v>
+      </c>
+      <c r="S55">
+        <v>8.9789999999999992</v>
+      </c>
+      <c r="W55">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="X55">
+        <v>3.3780000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>9.0820000000000007</v>
+      </c>
+      <c r="F56">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="G56">
+        <v>3.0419999999999998</v>
+      </c>
+      <c r="S56">
+        <v>8.9220000000000006</v>
+      </c>
+      <c r="W56">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="X56">
+        <v>3.3639999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>9.1189999999999998</v>
+      </c>
+      <c r="F57">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="G57">
+        <v>3.09</v>
+      </c>
+      <c r="S57">
+        <v>8.952</v>
+      </c>
+      <c r="W57">
+        <v>0.83</v>
+      </c>
+      <c r="X57">
+        <v>3.343</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>9.0489999999999995</v>
+      </c>
+      <c r="F58">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="G58">
+        <v>3.069</v>
+      </c>
+      <c r="S58">
+        <v>8.9079999999999995</v>
+      </c>
+      <c r="W58">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="X58">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>9.0860000000000003</v>
+      </c>
+      <c r="F59">
+        <v>0.753</v>
+      </c>
+      <c r="G59">
+        <v>3.0819999999999999</v>
+      </c>
+      <c r="S59">
+        <v>8.9109999999999996</v>
+      </c>
+      <c r="W59">
+        <v>0.83</v>
+      </c>
+      <c r="X59">
+        <v>3.3370000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>9.1010000000000009</v>
+      </c>
+      <c r="F60">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="G60">
+        <v>3.052</v>
+      </c>
+      <c r="S60">
+        <v>8.94</v>
+      </c>
+      <c r="W60">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="X60">
+        <v>3.3450000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>9.0340000000000007</v>
+      </c>
+      <c r="F61">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="G61">
+        <v>3.0880000000000001</v>
+      </c>
+      <c r="S61">
+        <v>8.9160000000000004</v>
+      </c>
+      <c r="W61">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="X61">
+        <v>3.3340000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>9.1150000000000002</v>
+      </c>
+      <c r="F62">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="G62">
+        <v>3.08</v>
+      </c>
+      <c r="S62">
+        <v>8.9250000000000007</v>
+      </c>
+      <c r="W62">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="X62">
+        <v>3.3660000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>9.1039999999999992</v>
+      </c>
+      <c r="F63">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="G63">
+        <v>3.08</v>
+      </c>
+      <c r="S63">
+        <v>8.9090000000000007</v>
+      </c>
+      <c r="W63">
+        <v>0.83</v>
+      </c>
+      <c r="X63">
+        <v>3.3380000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>9.06</v>
+      </c>
+      <c r="F64">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="G64">
+        <v>3.4569999999999999</v>
+      </c>
+      <c r="S64">
+        <v>8.9710000000000001</v>
+      </c>
+      <c r="W64">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="X64">
+        <v>3.3690000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>9.0760000000000005</v>
+      </c>
+      <c r="F65">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="G65">
+        <v>3.0649999999999999</v>
+      </c>
+      <c r="S65">
+        <v>8.9440000000000008</v>
+      </c>
+      <c r="W65">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="X65">
+        <v>3.327</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="F66">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="G66">
+        <v>3.0619999999999998</v>
+      </c>
+      <c r="S66">
+        <v>9.0380000000000003</v>
+      </c>
+      <c r="W66">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="X66">
+        <v>3.3380000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>9.0869999999999997</v>
+      </c>
+      <c r="F67">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="G67">
+        <v>3.07</v>
+      </c>
+      <c r="S67">
+        <v>8.9619999999999997</v>
+      </c>
+      <c r="W67">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="X67">
+        <v>3.339</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>9.0939999999999994</v>
+      </c>
+      <c r="F68">
+        <v>0.748</v>
+      </c>
+      <c r="G68">
+        <v>3.069</v>
+      </c>
+      <c r="S68">
+        <v>8.9429999999999996</v>
+      </c>
+      <c r="W68">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="X68">
+        <v>3.3370000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>9.1530000000000005</v>
+      </c>
+      <c r="F69">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="G69">
+        <v>3.06</v>
+      </c>
+      <c r="S69">
+        <v>8.9130000000000003</v>
+      </c>
+      <c r="W69">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="X69">
+        <v>3.3380000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>9.0730000000000004</v>
+      </c>
+      <c r="F70">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="G70">
+        <v>3.0910000000000002</v>
+      </c>
+      <c r="S70">
+        <v>9.1050000000000004</v>
+      </c>
+      <c r="W70">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="X70">
+        <v>3.3290000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>9.0990000000000002</v>
+      </c>
+      <c r="F71">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="G71">
+        <v>3.0750000000000002</v>
+      </c>
+      <c r="S71">
+        <v>9.0609999999999999</v>
+      </c>
+      <c r="W71">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="X71">
+        <v>3.3879999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>9.1110000000000007</v>
+      </c>
+      <c r="F72">
+        <v>0.71</v>
+      </c>
+      <c r="G72">
+        <v>3.1070000000000002</v>
+      </c>
+      <c r="S72">
+        <v>9.2590000000000003</v>
+      </c>
+      <c r="W72">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="X72">
+        <v>3.3839999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>9.0549999999999997</v>
+      </c>
+      <c r="F73">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="G73">
+        <v>3.08</v>
+      </c>
+      <c r="S73">
+        <v>8.9909999999999997</v>
+      </c>
+      <c r="W73">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="X73">
+        <v>3.3759999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>9.06</v>
+      </c>
+      <c r="F74">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="G74">
+        <v>3.0830000000000002</v>
+      </c>
+      <c r="S74">
+        <v>8.9619999999999997</v>
+      </c>
+      <c r="W74">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="X74">
+        <v>3.3420000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>9.0790000000000006</v>
+      </c>
+      <c r="F75">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="G75">
+        <v>3.093</v>
+      </c>
+      <c r="S75">
+        <v>9.0139999999999993</v>
+      </c>
+      <c r="W75">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="X75">
+        <v>3.3519999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>9.1349999999999998</v>
+      </c>
+      <c r="F76">
+        <v>0.745</v>
+      </c>
+      <c r="G76">
+        <v>3.0649999999999999</v>
+      </c>
+      <c r="S76">
+        <v>9.0690000000000008</v>
+      </c>
+      <c r="W76">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="X76">
+        <v>3.3530000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>9.0950000000000006</v>
+      </c>
+      <c r="F77">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="G77">
+        <v>3.09</v>
+      </c>
+      <c r="S77">
+        <v>8.9969999999999999</v>
+      </c>
+      <c r="W77">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="X77">
+        <v>3.383</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="G78">
+        <v>3.0870000000000002</v>
+      </c>
+      <c r="S78">
+        <v>9.0229999999999997</v>
+      </c>
+      <c r="W78">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="X78">
+        <v>3.3639999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="G79">
+        <v>3.133</v>
+      </c>
+      <c r="S79">
+        <v>9.0220000000000002</v>
+      </c>
+      <c r="W79">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="X79">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="G80">
+        <v>3.0979999999999999</v>
+      </c>
+      <c r="S80">
+        <v>8.9109999999999996</v>
+      </c>
+      <c r="W80">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="X80">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="81" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>0.746</v>
+      </c>
+      <c r="G81">
+        <v>3.077</v>
+      </c>
+      <c r="S81">
+        <v>8.9359999999999999</v>
+      </c>
+      <c r="W81">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="X81">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="82" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>0.71</v>
+      </c>
+      <c r="G82">
+        <v>3.081</v>
+      </c>
+      <c r="S82">
+        <v>8.9589999999999996</v>
+      </c>
+      <c r="W82">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="X82">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="83" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="G83">
+        <v>3.08</v>
+      </c>
+      <c r="S83">
+        <v>9.0559999999999992</v>
+      </c>
+      <c r="W83">
+        <v>0.85</v>
+      </c>
+      <c r="X83">
+        <v>3.343</v>
+      </c>
+    </row>
+    <row r="84" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="G84">
+        <v>3.0760000000000001</v>
+      </c>
+      <c r="S84">
+        <v>9.0350000000000001</v>
+      </c>
+      <c r="W84">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="X84">
+        <v>3.3620000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="G85">
+        <v>3.4590000000000001</v>
+      </c>
+      <c r="S85">
+        <v>9.0619999999999994</v>
+      </c>
+      <c r="W85">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="X85">
+        <v>3.411</v>
+      </c>
+    </row>
+    <row r="86" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>0.73</v>
+      </c>
+      <c r="G86">
+        <v>3.766</v>
+      </c>
+      <c r="S86">
+        <v>9.0519999999999996</v>
+      </c>
+      <c r="W86">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="X86">
+        <v>3.3420000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="G87">
+        <v>3.1059999999999999</v>
+      </c>
+      <c r="S87">
+        <v>9.0139999999999993</v>
+      </c>
+      <c r="W87">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="X87">
+        <v>3.351</v>
+      </c>
+    </row>
+    <row r="88" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="G88">
+        <v>3.1040000000000001</v>
+      </c>
+      <c r="S88">
+        <v>9.0259999999999998</v>
+      </c>
+      <c r="W88">
+        <v>0.83</v>
+      </c>
+      <c r="X88">
+        <v>3.3210000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="G89">
+        <v>3.0819999999999999</v>
+      </c>
+      <c r="S89">
+        <v>9</v>
+      </c>
+      <c r="W89">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="X89">
+        <v>3.3359999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="G90">
+        <v>3.048</v>
+      </c>
+      <c r="S90">
+        <v>9.0990000000000002</v>
+      </c>
+      <c r="W90">
+        <v>0.82</v>
+      </c>
+      <c r="X90">
+        <v>3.3540000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>0.74</v>
+      </c>
+      <c r="G91">
+        <v>3.0630000000000002</v>
+      </c>
+      <c r="S91">
+        <v>9.0530000000000008</v>
+      </c>
+      <c r="W91">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="X91">
+        <v>3.3420000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="G92">
+        <v>3.081</v>
+      </c>
+      <c r="S92">
+        <v>9.0239999999999991</v>
+      </c>
+      <c r="W92">
+        <v>0.84</v>
+      </c>
+      <c r="X92">
+        <v>3.3450000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="G93">
+        <v>3.0609999999999999</v>
+      </c>
+      <c r="S93">
+        <v>9</v>
+      </c>
+      <c r="W93">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="X93">
+        <v>3.3519999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="G94">
+        <v>3.0630000000000002</v>
+      </c>
+      <c r="S94">
+        <v>8.9920000000000009</v>
+      </c>
+      <c r="W94">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="X94">
+        <v>3.343</v>
+      </c>
+    </row>
+    <row r="95" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="G95">
+        <v>3.0539999999999998</v>
+      </c>
+      <c r="S95">
+        <v>8.9990000000000006</v>
+      </c>
+      <c r="W95">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="X95">
+        <v>3.3450000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="G96">
+        <v>3.0670000000000002</v>
+      </c>
+      <c r="S96">
+        <v>9.0020000000000007</v>
+      </c>
+      <c r="X96">
+        <v>3.395</v>
+      </c>
+    </row>
+    <row r="97" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="G97">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="S97">
+        <v>9.0269999999999992</v>
+      </c>
+      <c r="X97">
+        <v>3.351</v>
+      </c>
+    </row>
+    <row r="98" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="G98">
+        <v>3.0470000000000002</v>
+      </c>
+      <c r="S98">
+        <v>9.0549999999999997</v>
+      </c>
+      <c r="X98">
+        <v>3.3639999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="G99">
+        <v>3.0569999999999999</v>
+      </c>
+      <c r="S99">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="X99">
+        <v>3.3370000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>0.752</v>
+      </c>
+      <c r="G100">
+        <v>3.0569999999999999</v>
+      </c>
+      <c r="S100">
+        <v>9.0220000000000002</v>
+      </c>
+      <c r="X100">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="101" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="G101">
+        <v>3.0710000000000002</v>
+      </c>
+      <c r="S101">
+        <v>9.0269999999999992</v>
+      </c>
+      <c r="X101">
+        <v>3.3119999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="G102">
+        <v>3.0470000000000002</v>
+      </c>
+      <c r="S102">
+        <v>9.0289999999999999</v>
+      </c>
+      <c r="X102">
+        <v>3.339</v>
+      </c>
+    </row>
+    <row r="103" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="G103">
+        <v>3.0649999999999999</v>
+      </c>
+      <c r="S103">
+        <v>9.0350000000000001</v>
+      </c>
+      <c r="X103">
+        <v>3.3490000000000002</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="AQ11:AS11"/>
+    <mergeCell ref="AC21:AE21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>